--- a/data/2021-09-01_geobacter_layout.xlsx
+++ b/data/2021-09-01_geobacter_layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pate212/GitHub/stillage_general_script/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garc286/RStudio/stillage_general_script/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57AAC8E-7CFA-9544-9988-1A044A8C47F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E47E60-3D50-224E-AFEF-E53B20CA1DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{318F1633-56B8-984D-8E8D-FBAE4BE2DA50}"/>
+    <workbookView xWindow="2280" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{318F1633-56B8-984D-8E8D-FBAE4BE2DA50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="43">
   <si>
     <t>96 well plate template</t>
   </si>
@@ -121,9 +121,6 @@
     <t xml:space="preserve"> Aerobic_Blk</t>
   </si>
   <si>
-    <t>O2 Limit_Blk</t>
-  </si>
-  <si>
     <t>Fodder_Blk_Blk</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>H20</t>
   </si>
   <si>
-    <t>Nanowire_Blk</t>
-  </si>
-  <si>
     <t>W3-18-1</t>
   </si>
   <si>
@@ -152,13 +146,31 @@
   </si>
   <si>
     <t>Well</t>
+  </si>
+  <si>
+    <t>AABDH_Blk</t>
+  </si>
+  <si>
+    <t>DMR</t>
+  </si>
+  <si>
+    <t>DMR_Blk</t>
+  </si>
+  <si>
+    <t>Yarrowia</t>
+  </si>
+  <si>
+    <t>O2 imit_Blk</t>
+  </si>
+  <si>
+    <t>for stillage report I had R read DMR as a H20 so there was no confusion. DMR is not part of this project I just wanted to see the growth of Geo on the DMR MG 9/13/21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,24 +188,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -334,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -344,96 +338,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,379 +698,379 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24">
+      <c r="L2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24">
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24">
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24">
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24">
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24">
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24">
-        <v>9</v>
-      </c>
-      <c r="K1" s="24">
+      <c r="B8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24">
-        <v>11</v>
-      </c>
-      <c r="M1" s="24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="B9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>32</v>
+      <c r="J9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -1142,7 +1085,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1048576"/>
+      <selection activeCell="L4" sqref="L4:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,41 +1142,41 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>32</v>
+      <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1241,41 +1184,41 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>32</v>
+      <c r="J5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1283,41 +1226,41 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>32</v>
+      <c r="J6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1325,41 +1268,41 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>32</v>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1367,41 +1310,41 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>32</v>
+      <c r="J8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1409,41 +1352,41 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>32</v>
+      <c r="J9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1451,41 +1394,41 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>32</v>
+      <c r="J10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1495,41 +1438,41 @@
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>32</v>
+      <c r="J11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1550,19 +1493,24 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1570,7 +1518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
@@ -1578,7 +1526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
         <v>14</v>
       </c>
@@ -1586,7 +1534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
@@ -1594,7 +1542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
@@ -1602,7 +1550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
@@ -1610,7 +1558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
         <v>19</v>
       </c>
@@ -1626,7 +1574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" s="4"/>
       <c r="E29" s="4"/>
     </row>

--- a/data/2021-09-01_geobacter_layout.xlsx
+++ b/data/2021-09-01_geobacter_layout.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garc286/RStudio/stillage_general_script/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E47E60-3D50-224E-AFEF-E53B20CA1DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F66FF9-4517-F747-B0D7-8D38792DF0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{318F1633-56B8-984D-8E8D-FBAE4BE2DA50}"/>
+    <workbookView xWindow="4000" yWindow="4160" windowWidth="28800" windowHeight="18000" xr2:uid="{318F1633-56B8-984D-8E8D-FBAE4BE2DA50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="notes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="51">
   <si>
     <t>96 well plate template</t>
   </si>
@@ -164,6 +164,30 @@
   </si>
   <si>
     <t>for stillage report I had R read DMR as a H20 so there was no confusion. DMR is not part of this project I just wanted to see the growth of Geo on the DMR MG 9/13/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anaerobic lacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aerobic lacto</t>
+  </si>
+  <si>
+    <t>O2 limit lacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anaerobic lacto_Blk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aerobic lacto_Blk</t>
+  </si>
+  <si>
+    <t>O2 limit lacto_Blk</t>
+  </si>
+  <si>
+    <t>Fodder yeast_Blk</t>
+  </si>
+  <si>
+    <t>Fodder yeast</t>
   </si>
 </sst>
 </file>
@@ -699,10 +723,21 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="3.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
@@ -758,26 +793,26 @@
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>24</v>
+      <c r="E2" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>31</v>
@@ -799,26 +834,26 @@
       <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>24</v>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>31</v>
@@ -840,26 +875,26 @@
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>24</v>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>31</v>
@@ -882,25 +917,25 @@
         <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>31</v>
@@ -922,26 +957,26 @@
       <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>25</v>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>31</v>
@@ -963,26 +998,26 @@
       <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>41</v>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>31</v>
@@ -1004,26 +1039,26 @@
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>41</v>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>31</v>
@@ -1046,25 +1081,25 @@
         <v>23</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>31</v>

--- a/data/2021-09-01_geobacter_layout.xlsx
+++ b/data/2021-09-01_geobacter_layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garc286/RStudio/stillage_general_script/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stillage_general_script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F66FF9-4517-F747-B0D7-8D38792DF0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55F5E38-C3BC-418C-8140-22446DD99DA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="4160" windowWidth="28800" windowHeight="18000" xr2:uid="{318F1633-56B8-984D-8E8D-FBAE4BE2DA50}"/>
+    <workbookView xWindow="30300" yWindow="1590" windowWidth="18000" windowHeight="9360" xr2:uid="{318F1633-56B8-984D-8E8D-FBAE4BE2DA50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="52">
   <si>
     <t>96 well plate template</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Fodder yeast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -250,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -348,11 +351,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -401,6 +415,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,23 +740,23 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="3.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
@@ -780,7 +797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -821,7 +838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -862,7 +879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -903,7 +920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -944,7 +961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -985,7 +1002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +1084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1125,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -1123,14 +1144,14 @@
       <selection activeCell="L4" sqref="L4:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
@@ -1170,7 +1191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1214,7 +1235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1256,7 +1277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -1298,7 +1319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1340,7 +1361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1382,7 +1403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -1424,7 +1445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1466,7 +1487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1510,7 +1531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1526,7 +1547,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1540,12 +1561,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1553,7 +1574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
@@ -1561,7 +1582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>14</v>
       </c>
@@ -1569,7 +1590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
@@ -1577,7 +1598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
@@ -1585,7 +1606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>18</v>
       </c>
@@ -1601,7 +1622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>19</v>
       </c>
@@ -1609,7 +1630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
       <c r="E29" s="4"/>
     </row>
